--- a/base/XML结构.xlsx
+++ b/base/XML结构.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="8"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="attributes_config_def" sheetId="1" r:id="rId1"/>
@@ -16,13 +16,14 @@
     <sheet name="mapInfo" sheetId="7" r:id="rId7"/>
     <sheet name="mapInstance" sheetId="8" r:id="rId8"/>
     <sheet name="options" sheetId="9" r:id="rId9"/>
+    <sheet name="security" sheetId="10" r:id="rId10"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="115">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -220,10 +221,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>道具id数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>鉴定概率</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -349,15 +346,89 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>技能id数组</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>出生BP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>升级奖励BP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>option</t>
+  </si>
+  <si>
+    <t>defaultId</t>
+  </si>
+  <si>
+    <t>默认id组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能id组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道具id组</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>doubleExp</t>
+  </si>
+  <si>
+    <t>dayTime</t>
+  </si>
+  <si>
+    <t>limit</t>
+  </si>
+  <si>
+    <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日奖励时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每日刷新时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>累积上限</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eyeshot</t>
+  </si>
+  <si>
+    <t>max</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最大视野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>最小视野</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>birth</t>
+  </si>
+  <si>
+    <t>bp</t>
+  </si>
+  <si>
+    <t>初始BP</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -899,6 +970,81 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A2" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A3" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A4" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
@@ -1237,7 +1383,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D5"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1370,7 +1516,7 @@
         <v>55</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>56</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
@@ -1384,7 +1530,7 @@
         <v>53</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
@@ -1398,7 +1544,7 @@
         <v>53</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
@@ -1412,7 +1558,7 @@
         <v>53</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
@@ -1426,7 +1572,7 @@
         <v>53</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1465,44 +1611,44 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>61</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>62</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -1540,7 +1686,7 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>30</v>
@@ -1549,21 +1695,21 @@
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>69</v>
-      </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
   </sheetData>
@@ -1574,16 +1720,17 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D14"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13:D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="10.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.15">
@@ -1602,161 +1749,161 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="B2" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>73</v>
-      </c>
       <c r="C2" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C7" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C8" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C9" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A10" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="4" t="s">
         <v>55</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A11" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C11" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A12" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C12" s="4" t="s">
         <v>31</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A13" s="5" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>3</v>
@@ -1770,20 +1917,91 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A14" s="5" t="s">
-        <v>45</v>
+        <v>93</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>94</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>5</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>28</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A15" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A16" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A17" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A18" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A19" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>